--- a/FrontEnd/Data/reylu_guteirrez.xlsx
+++ b/FrontEnd/Data/reylu_guteirrez.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhernieevangelista/Desktop/ClassRepos/Off_to_the_Races/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhernieevangelista/Desktop/ClassRepos/Off_to_the_Races/FrontEnd/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC4DF8-DFDB-0F43-B9C9-C95EBC6B30E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438FAA6-8B67-6B43-947F-119B7505DC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="-19260" windowWidth="27640" windowHeight="15580" xr2:uid="{233F344D-57F9-4F47-9C3D-9CD4A8B30FDC}"/>
+    <workbookView xWindow="11740" yWindow="-19040" windowWidth="27640" windowHeight="15580" xr2:uid="{233F344D-57F9-4F47-9C3D-9CD4A8B30FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="reylu_weight" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="4">
   <si>
     <t>weight_carried</t>
   </si>
   <si>
     <t>race_date</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Reylu Guteirrez</t>
   </si>
 </sst>
 </file>
@@ -394,803 +400,1103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3911C6B8-7D50-C649-8423-20F6183D75E4}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>43466</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>115.925013390465</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>43469</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>114.802590673575</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>43470</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>116.803503010399</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>43471</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>115.380840018876</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>43475</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>43476</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>117.848115299334</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
         <v>43477</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>119.15243902439001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
         <v>43478</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>118.399661781285</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
         <v>43483</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>117.814644351464</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
         <v>43484</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>117.431432973805</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
         <v>43485</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>117.628548895899</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
         <v>43490</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>118.008306247742</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
         <v>43491</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>117.230622617534</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
         <v>43492</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>117.12949956101799</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
         <v>43497</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
         <v>43498</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>117.62453416149</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
         <v>43499</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>116.141170683718</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
         <v>43503</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>115.76738967838401</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
         <v>43504</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>115.605871029836</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
         <v>43505</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>117.347553324968</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
         <v>43506</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>117.988146551724</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
         <v>43511</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>116.09577999051599</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
         <v>43512</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>116.166666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <v>43513</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>116.429940666362</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
         <v>43514</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>115.58602846054301</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
         <v>43517</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>115.833768494342</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
         <v>43518</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>115.743517208863</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
         <v>43519</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>114.612802983219</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
         <v>43520</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>117.02254098360601</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
         <v>43524</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>117.954639175257</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
         <v>43525</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>115.855677655677</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
         <v>43526</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>119.063619227144</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
         <v>43527</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>115.27833333333299</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
         <v>43532</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>117.93898895990699</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
         <v>43533</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>116.50176429075501</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
         <v>43534</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>119.74879559532</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
         <v>43539</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>122.510826771653</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
         <v>43540</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>120.591206735266</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
         <v>43541</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>122.950216450216</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
         <v>43546</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>120.51153629712999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
         <v>43548</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>121.484463276836</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
         <v>43553</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>119.93902439024301</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
         <v>43554</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>123.357179885951</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
         <v>43555</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>119.52570990023</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
         <v>43560</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>121.57714285714199</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
         <v>43561</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>122.069087688219</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
         <v>43562</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>123.412935323383</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
         <v>43565</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>122.77922077922</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
         <v>43566</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>121.725697786333</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
         <v>43567</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>122.60606060606</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
         <v>43575</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>118.56526005888099</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
         <v>43581</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>118.808864265927</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
         <v>43587</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
         <v>43588</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
         <v>43589</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>119.05654870485201</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1">
         <v>43594</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>121.078236130867</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
         <v>43595</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>120.164285714285</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
         <v>43601</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1">
         <v>43602</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>122.265996343692</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1">
         <v>43603</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>119.171393341553</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1">
         <v>43608</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
         <v>43622</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
         <v>43628</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>121.33237410071899</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
         <v>43629</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
         <v>43636</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
         <v>43637</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
         <v>43639</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>119.12408759124</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
         <v>43643</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
         <v>43649</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
         <v>43650</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>121.46949602122</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
         <v>43657</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
         <v>43784</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
         <v>43785</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>121.993849938499</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1">
         <v>43786</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>121.85255767301901</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
         <v>43789</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>119.492254733218</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1">
         <v>43790</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>121.014634146341</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1">
         <v>43791</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>120.05655172413699</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
         <v>43792</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>119.970857618651</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
         <v>43793</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1">
         <v>43796</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>120.965545529122</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
         <v>43798</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>121.02875399361</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="1">
         <v>43799</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>120.847748391708</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="1">
         <v>43800</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>120.871316306483</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="1">
         <v>43804</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>121.443168771526</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="1">
         <v>43805</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>120.863636363636</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="1">
         <v>43806</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>121.72047832585901</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1">
         <v>43807</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>119.955491744436</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="1">
         <v>43811</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>121.45854418061499</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="1">
         <v>43812</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>121.337947494033</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1">
         <v>43813</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>121.329496402877</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1">
         <v>43814</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>120.85191956124299</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="1">
         <v>43819</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>123.22432170542599</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="1">
         <v>43820</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>122.252664576802</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="1">
         <v>43821</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>121.70509125840501</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="1">
         <v>43827</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>121.048353480616</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="1">
         <v>43828</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>120.400098911968</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="1">
         <v>43829</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>121.81327498176501</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="1">
         <v>43830</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>120.863862505653</v>
       </c>
     </row>
